--- a/config_4.13/game_module_config_cjj.xlsx
+++ b/config_4.13/game_module_config_cjj.xlsx
@@ -4259,10 +4259,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>act_ty_gifts_style/ act_002_ltlb</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>欢乐礼包</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -4284,6 +4280,10 @@
   </si>
   <si>
     <t>act_ty_by_hhl_style/act_009_hhl</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_gifts_style/act_002_ltlb</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4966,7 +4966,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C315" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C339" sqref="C339"/>
+      <selection pane="bottomRight" activeCell="C333" sqref="C333"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -13044,7 +13044,7 @@
         <v>311</v>
       </c>
       <c r="B312" s="49" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="C312" s="50" t="s">
         <v>979</v>
@@ -13067,7 +13067,7 @@
         <v>312</v>
       </c>
       <c r="B313" s="49" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="C313" s="50" t="s">
         <v>980</v>
@@ -13090,7 +13090,7 @@
         <v>313</v>
       </c>
       <c r="B314" s="49" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="C314" s="50" t="s">
         <v>981</v>
@@ -13136,7 +13136,7 @@
         <v>315</v>
       </c>
       <c r="B316" s="56" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="C316" s="50" t="s">
         <v>984</v>
@@ -13261,7 +13261,7 @@
         <v>946</v>
       </c>
       <c r="C321" s="58" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="D321" s="18" t="s">
         <v>947</v>
@@ -13495,10 +13495,10 @@
         <v>329</v>
       </c>
       <c r="B330" s="53" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C330" s="15" t="s">
         <v>1009</v>
-      </c>
-      <c r="C330" s="15" t="s">
-        <v>1010</v>
       </c>
       <c r="E330" s="17">
         <v>1</v>
